--- a/FinMath/ФМ-9 Борисов ПИ20-5.xlsx
+++ b/FinMath/ФМ-9 Борисов ПИ20-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\ShaRinGan\FinMath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DADE002-27F8-422E-B0CC-3022BA6F0730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E330AB-070B-4274-B980-BE21A0612A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FC35329D-C5F6-473E-A75B-4ED6939DADC2}"/>
+    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{FC35329D-C5F6-473E-A75B-4ED6939DADC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="72">
   <si>
     <t>K=</t>
   </si>
@@ -213,20 +213,55 @@
     <t>с=</t>
   </si>
   <si>
-    <t>8,12,13,16</t>
-  </si>
-  <si>
     <t>R=FV(S0+p) - max(S_T;K)=</t>
+  </si>
+  <si>
+    <t>P_T=max(S_T;K)=</t>
+  </si>
+  <si>
+    <t>ПростаяПродажа</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>ПростаяКороткаяПродажа</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>ПродажаОпционаПутСОсуществлениемКороткойПродажи</t>
+  </si>
+  <si>
+    <t>FV(SO)=</t>
+  </si>
+  <si>
+    <t>РыночнаяЦенаАкции</t>
+  </si>
+  <si>
+    <t>ПростаяПокупкаАкции</t>
+  </si>
+  <si>
+    <t>Опцион</t>
+  </si>
+  <si>
+    <t>12, 16</t>
+  </si>
+  <si>
+    <t>r1=r/2=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
-    <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+  <numFmts count="5">
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="0.000%"/>
+    <numFmt numFmtId="172" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -264,14 +299,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -287,6 +324,2886 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$I$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ПростаяПродажа</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$H$118:$H$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$I$122:$I$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-118E-47AB-993E-16DE20341446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$J$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ПростаяКороткаяПродажа</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$H$118:$H$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$J$122:$J$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>16.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.4249999999999972</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.5750000000000028</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-118E-47AB-993E-16DE20341446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$K$121</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ПродажаОпционаПутСОсуществлениемКороткойПродажи</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$H$118:$H$120</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$K$122:$K$124</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>10.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.424999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42499999999999716</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-118E-47AB-993E-16DE20341446}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="407637663"/>
+        <c:axId val="407648479"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="407637663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407648479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="407648479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="407637663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.26557821439512491"/>
+          <c:y val="0.81486480394936778"/>
+          <c:w val="0.5235226905785042"/>
+          <c:h val="0.18144175191397474"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$M$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ПростаяПокупкаАкции</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$L$148:$L$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$M$148:$M$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>185</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-6E54-4A30-BECF-A44F53428F65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$N$147</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Опцион</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$L$148:$L$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>700</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$N$148:$N$150</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>133.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-6E54-4A30-BECF-A44F53428F65}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="395925055"/>
+        <c:axId val="395927967"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="395925055"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395927967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395927967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395925055"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$M$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ПростаяПокупкаАкции</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$L$155:$L$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>566.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$M$155:$M$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>51.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3283-44C6-BD06-BBBF9CE9EAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$N$154</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Опцион</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист2!$L$155:$L$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>560</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>566.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>573</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист2!$N$155:$N$157</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-6.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3283-44C6-BD06-BBBF9CE9EAFA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="395900927"/>
+        <c:axId val="395906751"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="395900927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395906751"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="395906751"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="395900927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1171,6 +4088,114 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="22" name="Диаграмма 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{812DF909-10BC-4B8B-A134-650D7134D78F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="23" name="Диаграмма 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A348D61-8BD2-4515-983F-4FE59FF4508D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="24" name="Диаграмма 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD3DC21D-B974-42AB-9A61-5985444459E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1471,10 +4496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9044E86C-249F-4D08-982F-A9A83A49E017}">
-  <dimension ref="A2:M318"/>
+  <dimension ref="A2:N322"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F314" sqref="F314"/>
+    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
+      <selection activeCell="J321" sqref="J321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1485,7 +4510,7 @@
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1970,47 +4995,107 @@
         <v>29244.346769214055</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>13</v>
       </c>
       <c r="D117">
         <v>110</v>
       </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H117" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>0</v>
       </c>
       <c r="D118">
         <v>105</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H118">
+        <v>95</v>
+      </c>
+      <c r="I118">
+        <f>MIN(0,H118-$D$118)</f>
+        <v>-10</v>
+      </c>
+      <c r="J118">
+        <f>$D$123-H118</f>
+        <v>20.424999999999997</v>
+      </c>
+      <c r="K118">
+        <f>MAX($D$118,H118)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>8</v>
       </c>
       <c r="D119">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="H119">
+        <v>105</v>
+      </c>
+      <c r="I119">
+        <f t="shared" ref="I119:I120" si="5">MIN(0,H119-$D$118)</f>
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <f t="shared" ref="J119:J120" si="6">$D$123-H119</f>
+        <v>10.424999999999997</v>
+      </c>
+      <c r="K119">
+        <f t="shared" ref="K119:K120" si="7">MAX($D$118,H119)</f>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>3</v>
       </c>
       <c r="D120" s="1">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H120">
+        <v>115</v>
+      </c>
+      <c r="I120">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <f>$D$123-H120</f>
+        <v>0.42499999999999716</v>
+      </c>
+      <c r="K120">
+        <f t="shared" si="7"/>
+        <v>115</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>2</v>
       </c>
       <c r="D121">
         <v>3</v>
       </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H121" t="s">
+        <v>62</v>
+      </c>
+      <c r="I121" t="s">
+        <v>61</v>
+      </c>
+      <c r="J121" t="s">
+        <v>63</v>
+      </c>
+      <c r="K121" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>6</v>
       </c>
@@ -2026,67 +5111,125 @@
       <c r="G122">
         <v>100</v>
       </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="I122">
+        <f>I118+$D$119</f>
+        <v>-6</v>
+      </c>
+      <c r="J122">
+        <f>J118-$D$119</f>
+        <v>16.424999999999997</v>
+      </c>
+      <c r="K122">
+        <f>$D$123-K118</f>
+        <v>10.424999999999997</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>34</v>
       </c>
       <c r="D123">
         <f>(D117+D119)*(1+D120*D121/12)</f>
-        <v>114.41249999999999</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>115.425</v>
+      </c>
+      <c r="H123">
+        <f>D118</f>
+        <v>105</v>
+      </c>
+      <c r="I123">
+        <f t="shared" ref="I123:I124" si="8">I119+$D$119</f>
+        <v>4</v>
+      </c>
+      <c r="J123">
+        <f t="shared" ref="J123:J124" si="9">J119-$D$119</f>
+        <v>6.4249999999999972</v>
+      </c>
+      <c r="K123">
+        <f t="shared" ref="K123:K124" si="10">$D$123-K119</f>
+        <v>10.424999999999997</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="D124">
         <f>MAX(D122,$D118)</f>
         <v>115.43</v>
       </c>
       <c r="E124">
-        <f t="shared" ref="E124:G124" si="5">MAX(E122,$D118)</f>
+        <f t="shared" ref="E124:G124" si="11">MAX(E122,$D118)</f>
         <v>110</v>
       </c>
       <c r="F124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
       <c r="G124">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H124">
+        <v>200</v>
+      </c>
+      <c r="I124">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="J124">
+        <f t="shared" si="9"/>
+        <v>-3.5750000000000028</v>
+      </c>
+      <c r="K124">
+        <f t="shared" si="10"/>
+        <v>0.42499999999999716</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>60</v>
-      </c>
-      <c r="D125">
+        <v>59</v>
+      </c>
+      <c r="D125" s="2">
         <f>$D123-D124</f>
-        <v>-1.0175000000000125</v>
-      </c>
-      <c r="E125">
-        <f t="shared" ref="E125:G125" si="6">$D123-E124</f>
-        <v>4.4124999999999943</v>
-      </c>
-      <c r="F125">
-        <f t="shared" si="6"/>
-        <v>9.4124999999999943</v>
-      </c>
-      <c r="G125">
-        <f t="shared" si="6"/>
-        <v>9.4124999999999943</v>
-      </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-5.0000000000096634E-3</v>
+      </c>
+      <c r="E125" s="2">
+        <f t="shared" ref="E125:G125" si="12">$D123-E124</f>
+        <v>5.4249999999999972</v>
+      </c>
+      <c r="F125" s="2">
+        <f t="shared" si="12"/>
+        <v>10.424999999999997</v>
+      </c>
+      <c r="G125" s="2">
+        <f t="shared" si="12"/>
+        <v>10.424999999999997</v>
+      </c>
+    </row>
+    <row r="144" spans="12:12" x14ac:dyDescent="0.25">
+      <c r="L144" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>13</v>
       </c>
       <c r="D146">
         <v>500</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L146" t="s">
+        <v>66</v>
+      </c>
+      <c r="M146">
+        <f>(D146)*(1+D149*D150/12)</f>
+        <v>515</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>0</v>
       </c>
@@ -2096,32 +5239,74 @@
       <c r="E147">
         <v>400</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L147" t="s">
+        <v>67</v>
+      </c>
+      <c r="M147" t="s">
+        <v>68</v>
+      </c>
+      <c r="N147" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>8</v>
       </c>
       <c r="D148">
         <v>50</v>
       </c>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>500</v>
+      </c>
+      <c r="M148">
+        <f>L148-$M$146</f>
+        <v>-15</v>
+      </c>
+      <c r="N148">
+        <f>MAX(L148,$D$147)-$D$152</f>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>3</v>
       </c>
       <c r="D149" s="1">
         <v>0.09</v>
       </c>
-    </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>600</v>
+      </c>
+      <c r="M149">
+        <f t="shared" ref="M149:M150" si="13">L149-$M$146</f>
+        <v>85</v>
+      </c>
+      <c r="N149">
+        <f>MAX(L149,$D$147)-$D$152</f>
+        <v>33.5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>2</v>
       </c>
       <c r="D150">
         <v>4</v>
       </c>
-    </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>700</v>
+      </c>
+      <c r="M150">
+        <f t="shared" si="13"/>
+        <v>185</v>
+      </c>
+      <c r="N150">
+        <f>MAX(L150,$D$147)-$D$152</f>
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>6</v>
       </c>
@@ -2141,7 +5326,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>34</v>
       </c>
@@ -2149,8 +5334,11 @@
         <f>(D146+D148)*(1+D149*D150/12)</f>
         <v>566.5</v>
       </c>
-    </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="M152" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>33</v>
       </c>
@@ -2159,23 +5347,23 @@
         <v>600</v>
       </c>
       <c r="E153">
-        <f t="shared" ref="E153:G153" si="7">MAX(E151,$D147)</f>
+        <f t="shared" ref="E153:G153" si="14">MAX(E151,$D147)</f>
         <v>600</v>
       </c>
       <c r="F153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>700</v>
       </c>
       <c r="G153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>600</v>
       </c>
       <c r="H153">
-        <f t="shared" ref="H153" si="8">MAX(H151,$D147)</f>
+        <f t="shared" ref="H153" si="15">MAX(H151,$D147)</f>
         <v>650</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>37</v>
       </c>
@@ -2184,26 +5372,35 @@
         <v>33.5</v>
       </c>
       <c r="E154" s="2">
-        <f t="shared" ref="E154" si="9">E153-$D152</f>
+        <f t="shared" ref="E154" si="16">E153-$D152</f>
         <v>33.5</v>
       </c>
       <c r="F154" s="2">
-        <f t="shared" ref="F154" si="10">F153-$D152</f>
+        <f t="shared" ref="F154" si="17">F153-$D152</f>
         <v>133.5</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" ref="G154:H154" si="11">G153-$D152</f>
+        <f t="shared" ref="G154:H154" si="18">G153-$D152</f>
         <v>33.5</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="18"/>
         <v>83.5</v>
       </c>
       <c r="J154" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L154" t="s">
+        <v>67</v>
+      </c>
+      <c r="M154" t="s">
+        <v>68</v>
+      </c>
+      <c r="N154" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -2216,7 +5413,7 @@
         <v>560</v>
       </c>
       <c r="F155">
-        <f t="shared" ref="F155:H155" si="12">MAX(F151,$E147)</f>
+        <f t="shared" ref="F155:H155" si="19">MAX(F151,$E147)</f>
         <v>700</v>
       </c>
       <c r="G155">
@@ -2224,11 +5421,22 @@
         <v>400</v>
       </c>
       <c r="H155">
-        <f t="shared" si="12"/>
+        <f t="shared" si="19"/>
         <v>650</v>
       </c>
-    </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>560</v>
+      </c>
+      <c r="M155">
+        <f>L155-$M$146</f>
+        <v>45</v>
+      </c>
+      <c r="N155">
+        <f>MAX(L155,$E$147)-$D$152</f>
+        <v>-6.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -2237,23 +5445,47 @@
         <v>-126.5</v>
       </c>
       <c r="E156" s="2">
-        <f t="shared" ref="E156:H156" si="13">E155-$D152</f>
+        <f t="shared" ref="E156:H156" si="20">E155-$D152</f>
         <v>-6.5</v>
       </c>
       <c r="F156" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>133.5</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>-166.5</v>
       </c>
       <c r="H156" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="20"/>
         <v>83.5</v>
       </c>
       <c r="J156" t="s">
         <v>36</v>
+      </c>
+      <c r="L156">
+        <v>566.5</v>
+      </c>
+      <c r="M156">
+        <f t="shared" ref="M156:M157" si="21">L156-$M$146</f>
+        <v>51.5</v>
+      </c>
+      <c r="N156">
+        <f t="shared" ref="N156:N157" si="22">MAX(L156,$E$147)-$D$152</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <v>573</v>
+      </c>
+      <c r="M157">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="N157">
+        <f t="shared" si="22"/>
+        <v>6.5</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
@@ -2469,7 +5701,7 @@
       <c r="A212" t="s">
         <v>24</v>
       </c>
-      <c r="C212" s="1">
+      <c r="C212" s="8">
         <f>15%/2</f>
         <v>7.4999999999999997E-2</v>
       </c>
@@ -2478,16 +5710,16 @@
       <c r="A213" t="s">
         <v>25</v>
       </c>
-      <c r="C213" s="1">
+      <c r="C213" s="8">
         <f>10%/2</f>
         <v>0.05</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>19</v>
-      </c>
-      <c r="C214" s="1">
+        <v>71</v>
+      </c>
+      <c r="C214" s="7">
         <f>C209/2</f>
         <v>0.05</v>
       </c>
@@ -2496,7 +5728,7 @@
       <c r="A215" t="s">
         <v>20</v>
       </c>
-      <c r="C215" s="1">
+      <c r="C215" s="7">
         <f>1-C213</f>
         <v>0.95</v>
       </c>
@@ -2505,7 +5737,7 @@
       <c r="A216" t="s">
         <v>21</v>
       </c>
-      <c r="C216" s="1">
+      <c r="C216" s="7">
         <f>1+C212</f>
         <v>1.075</v>
       </c>
@@ -2675,8 +5907,8 @@
         <v>39</v>
       </c>
       <c r="C244" s="1">
-        <f>1+C243</f>
-        <v>1.0900000000000001</v>
+        <f>1-C243</f>
+        <v>0.91</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
@@ -2694,7 +5926,7 @@
       </c>
       <c r="C246" s="1">
         <f>(1+C240-C244)/(C245-C244)</f>
-        <v>-1</v>
+        <v>0.71428571428571408</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
@@ -2703,7 +5935,7 @@
       </c>
       <c r="C247" s="1">
         <f>(C245-(1+C240))/(C245-C244)</f>
-        <v>2</v>
+        <v>0.28571428571428586</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -2740,15 +5972,15 @@
       </c>
       <c r="D250">
         <f>$C$247^($C$241-A250)</f>
-        <v>8</v>
+        <v>2.3323615160349892E-2</v>
       </c>
       <c r="E250">
         <f>MAX($C$245^A250*$C$244^($C$241-A250)*$C$239-$C$238,0)</f>
-        <v>39.005800000000022</v>
+        <v>0</v>
       </c>
       <c r="H250">
         <f>PRODUCT(B250:E250)</f>
-        <v>312.04640000000018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
@@ -2756,24 +5988,24 @@
         <v>1</v>
       </c>
       <c r="B251">
-        <f t="shared" ref="B251:B253" si="14">COMBIN($C$241,A251)</f>
+        <f t="shared" ref="B251:B253" si="23">COMBIN($C$241,A251)</f>
         <v>3</v>
       </c>
       <c r="C251">
-        <f t="shared" ref="C251:C253" si="15">$C$246^A251</f>
-        <v>-1</v>
+        <f t="shared" ref="C251:C253" si="24">$C$246^A251</f>
+        <v>0.71428571428571408</v>
       </c>
       <c r="D251">
-        <f t="shared" ref="D251:D253" si="16">$C$247^($C$241-A251)</f>
-        <v>4</v>
+        <f t="shared" ref="D251:D253" si="25">$C$247^($C$241-A251)</f>
+        <v>8.163265306122458E-2</v>
       </c>
       <c r="E251">
-        <f t="shared" ref="E251:E253" si="17">MAX($C$245^A251*$C$244^($C$241-A251)*$C$239-$C$238,0)</f>
-        <v>46.134400000000085</v>
+        <f t="shared" ref="E251:E253" si="26">MAX($C$245^A251*$C$244^($C$241-A251)*$C$239-$C$238,0)</f>
+        <v>0</v>
       </c>
       <c r="H251">
-        <f t="shared" ref="H251:H253" si="18">PRODUCT(B251:E251)</f>
-        <v>-553.61280000000102</v>
+        <f t="shared" ref="H251:H253" si="27">PRODUCT(B251:E251)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
@@ -2781,24 +6013,24 @@
         <v>2</v>
       </c>
       <c r="B252">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>3</v>
       </c>
       <c r="C252">
-        <f t="shared" si="15"/>
-        <v>1</v>
+        <f t="shared" si="24"/>
+        <v>0.51020408163265274</v>
       </c>
       <c r="D252">
-        <f t="shared" si="16"/>
-        <v>2</v>
+        <f t="shared" si="25"/>
+        <v>0.28571428571428586</v>
       </c>
       <c r="E252">
-        <f t="shared" si="17"/>
-        <v>53.459200000000067</v>
+        <f t="shared" si="26"/>
+        <v>8.3008000000000663</v>
       </c>
       <c r="H252">
-        <f t="shared" si="18"/>
-        <v>320.7552000000004</v>
+        <f t="shared" si="27"/>
+        <v>3.6300874635568796</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
@@ -2806,24 +6038,24 @@
         <v>3</v>
       </c>
       <c r="B253">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>1</v>
       </c>
       <c r="C253">
-        <f t="shared" si="15"/>
-        <v>-1</v>
+        <f t="shared" si="24"/>
+        <v>0.36443148688046612</v>
       </c>
       <c r="D253">
-        <f t="shared" si="16"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="E253">
-        <f t="shared" si="17"/>
+        <f t="shared" si="26"/>
         <v>60.98560000000009</v>
       </c>
       <c r="H253">
-        <f t="shared" si="18"/>
-        <v>-60.98560000000009</v>
+        <f t="shared" si="27"/>
+        <v>22.225072886297387</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
@@ -2832,16 +6064,16 @@
       </c>
       <c r="H254">
         <f>SUM(H250:H253)</f>
-        <v>18.20319999999947</v>
+        <v>25.855160349854266</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>1</v>
       </c>
-      <c r="C255" s="2">
+      <c r="C255" s="4">
         <f>1/(1+C240)^C241*H254</f>
-        <v>15.283757732893147</v>
+        <v>21.708491195629833</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +6223,7 @@
         <v>0.37250567545480201</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>30</v>
       </c>
@@ -3000,7 +6232,7 @@
         <v>0.7438782633471368</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>31</v>
       </c>
@@ -3009,7 +6241,7 @@
         <v>0.64524180642062023</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>8</v>
       </c>
@@ -3018,32 +6250,51 @@
         <v>50.641396606578041</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>16</v>
       </c>
       <c r="B303">
         <v>6000</v>
       </c>
-    </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E303" t="s">
+        <v>0</v>
+      </c>
+      <c r="G303">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>0</v>
       </c>
       <c r="B304">
         <v>5900</v>
       </c>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E304" t="s">
+        <v>16</v>
+      </c>
+      <c r="G304">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>14</v>
       </c>
       <c r="B305" s="1">
-        <f>8%</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+        <f>8%/4</f>
+        <v>0.02</v>
+      </c>
+      <c r="E305" t="s">
+        <v>14</v>
+      </c>
+      <c r="G305" s="1">
+        <f>B305</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>2</v>
       </c>
@@ -3051,8 +6302,14 @@
         <f>1/4</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E306" t="s">
+        <v>15</v>
+      </c>
+      <c r="G306">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>27</v>
       </c>
@@ -3060,8 +6317,22 @@
         <f>25%</f>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E307" t="s">
+        <v>24</v>
+      </c>
+      <c r="G307" s="1">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E308" t="s">
+        <v>25</v>
+      </c>
+      <c r="G308" s="1">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>38</v>
       </c>
@@ -3069,8 +6340,15 @@
         <f>EXP(B307*SQRT(B306))</f>
         <v>1.1331484530668263</v>
       </c>
-    </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E309" t="s">
+        <v>39</v>
+      </c>
+      <c r="G309" s="1">
+        <f>B310</f>
+        <v>0.88249690258459546</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>39</v>
       </c>
@@ -3078,8 +6356,24 @@
         <f>EXP(-B307*SQRT(B306))</f>
         <v>0.88249690258459546</v>
       </c>
-    </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E310" t="s">
+        <v>38</v>
+      </c>
+      <c r="G310" s="1">
+        <f>B309</f>
+        <v>1.1331484530668263</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E311" t="s">
+        <v>40</v>
+      </c>
+      <c r="G311" s="1">
+        <f>(1+G305-G309)/(G310-G309)</f>
+        <v>0.54858267244252457</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>17</v>
       </c>
@@ -3087,8 +6381,15 @@
         <f>B303*B309</f>
         <v>6798.8907184009577</v>
       </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E312" t="s">
+        <v>41</v>
+      </c>
+      <c r="G312" s="1">
+        <f>(G310-(1+G305))/(G310-G309)</f>
+        <v>0.45141732755747543</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>18</v>
       </c>
@@ -3097,7 +6398,7 @@
         <v>5294.9814155075728</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>22</v>
       </c>
@@ -3106,7 +6407,7 @@
         <v>898.89071840095767</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>23</v>
       </c>
@@ -3115,14 +6416,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>58</v>
       </c>
       <c r="B318">
         <f>(1+B305-B310)*C315/((1+B305)*(B309-B310))</f>
-        <v>655.82301916075448</v>
-      </c>
+        <v>483.44693385703738</v>
+      </c>
+    </row>
+    <row r="322" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G322" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/FinMath/ФМ-9 Борисов ПИ20-5.xlsx
+++ b/FinMath/ФМ-9 Борисов ПИ20-5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikita\Desktop\ShaRinGan\FinMath\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E330AB-070B-4274-B980-BE21A0612A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BF699E-35AB-4D93-A44F-384BA1631CBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="630" windowWidth="28770" windowHeight="15570" xr2:uid="{FC35329D-C5F6-473E-A75B-4ED6939DADC2}"/>
+    <workbookView xWindow="17595" yWindow="1395" windowWidth="28770" windowHeight="15570" xr2:uid="{FC35329D-C5F6-473E-A75B-4ED6939DADC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист2" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="66">
   <si>
     <t>K=</t>
   </si>
@@ -114,9 +114,6 @@
     <t>l=</t>
   </si>
   <si>
-    <t>знам=</t>
-  </si>
-  <si>
     <t>sigma=</t>
   </si>
   <si>
@@ -162,33 +159,6 @@
     <t>q_d=</t>
   </si>
   <si>
-    <t>uuS=</t>
-  </si>
-  <si>
-    <t>ddS=</t>
-  </si>
-  <si>
-    <t>udS=</t>
-  </si>
-  <si>
-    <t>cuu=max(0;uuS-K)=</t>
-  </si>
-  <si>
-    <t>cud=max(0;udS-K)=</t>
-  </si>
-  <si>
-    <t>cdd=max(0;ddS-K)=</t>
-  </si>
-  <si>
-    <t>cu=</t>
-  </si>
-  <si>
-    <t>cd=</t>
-  </si>
-  <si>
-    <t>способ 2</t>
-  </si>
-  <si>
     <t>i</t>
   </si>
   <si>
@@ -249,19 +219,32 @@
     <t>12, 16</t>
   </si>
   <si>
-    <t>r1=r/2=</t>
+    <t>r1=(1+r)^0,5-1</t>
+  </si>
+  <si>
+    <t>delta=</t>
+  </si>
+  <si>
+    <t>r1=</t>
+  </si>
+  <si>
+    <t>cu=max(0;K-uS)=</t>
+  </si>
+  <si>
+    <t>cd=max(0;K-dS)=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="0.00000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="171" formatCode="0.000%"/>
-    <numFmt numFmtId="172" formatCode="0.0000%"/>
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000%"/>
+    <numFmt numFmtId="168" formatCode="0.00000%"/>
+    <numFmt numFmtId="169" formatCode="0.000000%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -299,16 +282,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3217,7 +3201,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>124710</xdr:colOff>
+      <xdr:colOff>58035</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>143001</xdr:rowOff>
     </xdr:to>
@@ -3260,8 +3244,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>10394</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>553319</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>162054</xdr:rowOff>
     </xdr:to>
@@ -3305,7 +3289,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>86605</xdr:colOff>
+      <xdr:colOff>19930</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>104896</xdr:rowOff>
     </xdr:to>
@@ -3349,7 +3333,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600942</xdr:colOff>
+      <xdr:colOff>534267</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>104896</xdr:rowOff>
     </xdr:to>
@@ -3392,8 +3376,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>58026</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600951</xdr:colOff>
       <xdr:row>52</xdr:row>
       <xdr:rowOff>143001</xdr:rowOff>
     </xdr:to>
@@ -3437,7 +3421,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>115184</xdr:colOff>
+      <xdr:colOff>48509</xdr:colOff>
       <xdr:row>55</xdr:row>
       <xdr:rowOff>114369</xdr:rowOff>
     </xdr:to>
@@ -3480,8 +3464,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>48500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591425</xdr:colOff>
       <xdr:row>73</xdr:row>
       <xdr:rowOff>95476</xdr:rowOff>
     </xdr:to>
@@ -3524,8 +3508,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>29447</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>572372</xdr:colOff>
       <xdr:row>91</xdr:row>
       <xdr:rowOff>19239</xdr:rowOff>
     </xdr:to>
@@ -3568,8 +3552,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>38973</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>581898</xdr:colOff>
       <xdr:row>115</xdr:row>
       <xdr:rowOff>19425</xdr:rowOff>
     </xdr:to>
@@ -3612,8 +3596,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>58026</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>600951</xdr:colOff>
       <xdr:row>143</xdr:row>
       <xdr:rowOff>181293</xdr:rowOff>
     </xdr:to>
@@ -3656,8 +3640,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>48500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591425</xdr:colOff>
       <xdr:row>162</xdr:row>
       <xdr:rowOff>162054</xdr:rowOff>
     </xdr:to>
@@ -3700,8 +3684,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>29447</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>572372</xdr:colOff>
       <xdr:row>165</xdr:row>
       <xdr:rowOff>114369</xdr:rowOff>
     </xdr:to>
@@ -3744,8 +3728,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>48500</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>591425</xdr:colOff>
       <xdr:row>182</xdr:row>
       <xdr:rowOff>162107</xdr:rowOff>
     </xdr:to>
@@ -3789,7 +3773,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600942</xdr:colOff>
+      <xdr:colOff>534267</xdr:colOff>
       <xdr:row>205</xdr:row>
       <xdr:rowOff>123975</xdr:rowOff>
     </xdr:to>
@@ -3828,13 +3812,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>229</xdr:row>
+      <xdr:row>227</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>220314</xdr:colOff>
-      <xdr:row>235</xdr:row>
+      <xdr:colOff>153639</xdr:colOff>
+      <xdr:row>233</xdr:row>
       <xdr:rowOff>162094</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3872,13 +3856,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>254</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>515205</xdr:colOff>
-      <xdr:row>260</xdr:row>
+      <xdr:colOff>448530</xdr:colOff>
+      <xdr:row>258</xdr:row>
       <xdr:rowOff>66791</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3916,13 +3900,13 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>254</xdr:row>
+      <xdr:row>252</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>96195</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>618</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -3960,13 +3944,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>275</xdr:row>
+      <xdr:row>273</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>448606</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:colOff>381931</xdr:colOff>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>114396</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4004,13 +3988,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>278</xdr:row>
+      <xdr:row>276</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>238791</xdr:colOff>
-      <xdr:row>293</xdr:row>
+      <xdr:row>291</xdr:row>
       <xdr:rowOff>133746</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4048,13 +4032,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>295</xdr:row>
+      <xdr:row>293</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>391448</xdr:colOff>
-      <xdr:row>301</xdr:row>
+      <xdr:colOff>324773</xdr:colOff>
+      <xdr:row>299</xdr:row>
       <xdr:rowOff>66844</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4194,6 +4178,50 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>183</xdr:row>
+      <xdr:rowOff>27214</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393833</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>17476</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Рисунок 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D4DE08-C8F6-454F-A176-FEAB5CE2A067}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2966357" y="34888714"/>
+          <a:ext cx="6190476" cy="1704762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4496,21 +4524,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9044E86C-249F-4D08-982F-A9A83A49E017}">
-  <dimension ref="A2:N322"/>
+  <dimension ref="A2:N317"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="J321" sqref="J321"/>
+    <sheetView tabSelected="1" topLeftCell="A209" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L243" sqref="L243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M2" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -5003,7 +5032,7 @@
         <v>110</v>
       </c>
       <c r="H117" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -5044,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="J119">
-        <f t="shared" ref="J119:J120" si="6">$D$123-H119</f>
+        <f t="shared" ref="J119" si="6">$D$123-H119</f>
         <v>10.424999999999997</v>
       </c>
       <c r="K119">
@@ -5083,16 +5112,16 @@
         <v>3</v>
       </c>
       <c r="H121" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="I121" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="J121" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="K121" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
@@ -5129,7 +5158,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D123">
         <f>(D117+D119)*(1+D120*D121/12)</f>
@@ -5154,7 +5183,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D124">
         <f>MAX(D122,$D118)</f>
@@ -5190,7 +5219,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="D125" s="2">
         <f>$D123-D124</f>
@@ -5211,7 +5240,7 @@
     </row>
     <row r="144" spans="12:12" x14ac:dyDescent="0.25">
       <c r="L144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
@@ -5222,7 +5251,7 @@
         <v>500</v>
       </c>
       <c r="L146" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="M146">
         <f>(D146)*(1+D149*D150/12)</f>
@@ -5240,13 +5269,13 @@
         <v>400</v>
       </c>
       <c r="L147" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M147" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N147" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
@@ -5328,19 +5357,19 @@
     </row>
     <row r="152" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D152">
         <f>(D146+D148)*(1+D149*D150/12)</f>
         <v>566.5</v>
       </c>
       <c r="M152" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="153" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D153">
         <f>MAX(D151,$D147)</f>
@@ -5365,7 +5394,7 @@
     </row>
     <row r="154" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D154" s="2">
         <f>D153-$D152</f>
@@ -5388,21 +5417,21 @@
         <v>83.5</v>
       </c>
       <c r="J154" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L154" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="M154" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="N154" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="155" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D155">
         <f>MAX(D151,$E147)</f>
@@ -5438,7 +5467,7 @@
     </row>
     <row r="156" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D156" s="2">
         <f>D155-$D152</f>
@@ -5461,7 +5490,7 @@
         <v>83.5</v>
       </c>
       <c r="J156" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L156">
         <v>566.5</v>
@@ -5538,7 +5567,7 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D173">
         <f>(D167+D169)*(1+D170*D171/12)</f>
@@ -5547,7 +5576,7 @@
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D174">
         <f>MAX(D172,$D168)</f>
@@ -5556,7 +5585,7 @@
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D175" s="2">
         <f>$D173-D174</f>
@@ -5686,7 +5715,7 @@
         <v>15</v>
       </c>
       <c r="C210">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5696,210 +5725,180 @@
       <c r="C211">
         <v>5000</v>
       </c>
+      <c r="E211" s="1"/>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>24</v>
       </c>
-      <c r="C212" s="8">
-        <f>15%/2</f>
-        <v>7.4999999999999997E-2</v>
+      <c r="C212" s="7">
+        <f>15%</f>
+        <v>0.15</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>25</v>
       </c>
-      <c r="C213" s="8">
-        <f>10%/2</f>
-        <v>0.05</v>
+      <c r="C213" s="7">
+        <f>10%</f>
+        <v>0.1</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>71</v>
-      </c>
-      <c r="C214" s="7">
-        <f>C209/2</f>
-        <v>0.05</v>
+        <v>61</v>
+      </c>
+      <c r="C214" s="6">
+        <f>(1+C209)^(1/2)-1</f>
+        <v>4.8808848170151631E-2</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>20</v>
-      </c>
-      <c r="C215" s="7">
-        <f>1-C213</f>
-        <v>0.95</v>
+        <v>21</v>
+      </c>
+      <c r="C215" s="6">
+        <f>(1+C212)^(1/2)</f>
+        <v>1.0723805294763609</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>21</v>
-      </c>
-      <c r="C216" s="7">
-        <f>1+C212</f>
-        <v>1.075</v>
+        <v>20</v>
+      </c>
+      <c r="C216" s="6">
+        <f>(1-C213)^(1/2)</f>
+        <v>0.94868329805051377</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>42</v>
+        <v>17</v>
       </c>
       <c r="C218">
         <f>C211*C216^2</f>
-        <v>5778.1249999999991</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="C219">
         <f>C211*C215^2</f>
-        <v>4512.5</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A220" t="s">
-        <v>44</v>
-      </c>
-      <c r="C220">
-        <f>C211*C215*C216</f>
-        <v>5106.25</v>
+        <v>5750.0000000000009</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>39</v>
+      </c>
+      <c r="C221" s="7">
+        <f>(1+C214-C215)/(C216-C215)</f>
+        <v>0.19055948976788356</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>40</v>
       </c>
-      <c r="C222" s="1">
-        <f>(1+C214-C215)/(C216-C215)</f>
-        <v>0.80000000000000071</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A223" t="s">
-        <v>41</v>
-      </c>
-      <c r="C223" s="1">
-        <f>1-C222</f>
-        <v>0.19999999999999929</v>
-      </c>
-      <c r="E223" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C222" s="8">
+        <f>1-C221</f>
+        <v>0.80944051023211649</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224">
+        <f>MAX(0,C218-C208)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="C225">
-        <f>MAX(0,C218-C208)</f>
-        <v>578.12499999999909</v>
-      </c>
-      <c r="E225" t="s">
-        <v>26</v>
-      </c>
-      <c r="F225">
-        <f>((1+C214)*(C216-C215))</f>
-        <v>0.13125000000000001</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A226" t="s">
-        <v>46</v>
-      </c>
-      <c r="C226">
-        <f>MAX(0,C220-C208)</f>
+        <f>MAX(0,C219-C208)</f>
+        <v>550.00000000000091</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>1</v>
+      </c>
+      <c r="C227" s="2">
+        <f>(C221*C224+C222*C225)/(1+C209)</f>
+        <v>404.72025511605887</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>0</v>
       </c>
-      <c r="E226" t="s">
-        <v>48</v>
-      </c>
-      <c r="F226">
-        <f>((1+C214-C215)*C225+(C216-(1+C214))*C226)/F225</f>
-        <v>440.47619047619014</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A227" t="s">
-        <v>47</v>
-      </c>
-      <c r="C227">
-        <f>MAX(0,C219-C208)</f>
-        <v>0</v>
-      </c>
-      <c r="E227" t="s">
-        <v>49</v>
-      </c>
-      <c r="F227">
-        <f>((1+C214-C215)*C226+(C216-(1+C214))*C227)/F225</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A229" t="s">
-        <v>1</v>
-      </c>
-      <c r="C229" s="2">
-        <f>1/(1+C214)^2*(C222^2*C225+2*C222*C223*C226+C223^2*C227)</f>
-        <v>335.60090702947849</v>
-      </c>
-      <c r="E229" t="s">
-        <v>1</v>
-      </c>
-      <c r="F229" s="6">
-        <f>((1+C214-C215)*F226+(C216-(1+C214))*F227)/F225</f>
-        <v>335.60090702947849</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C236">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>16</v>
+      </c>
+      <c r="C237">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>0</v>
-      </c>
-      <c r="C238">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C238" s="1">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C239">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C240" s="1">
-        <v>0.06</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>15</v>
-      </c>
-      <c r="C241">
-        <v>3</v>
+        <v>25</v>
+      </c>
+      <c r="C241" s="1">
+        <v>0.15</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C242" s="1">
-        <v>0.12</v>
+        <f>1-C241</f>
+        <v>0.85</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C243" s="1">
-        <v>0.09</v>
+        <f>1+C240</f>
+        <v>1.2</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
@@ -5907,224 +5906,189 @@
         <v>39</v>
       </c>
       <c r="C244" s="1">
-        <f>1-C243</f>
-        <v>0.91</v>
+        <f>(1+C238-C242)/(C243-C242)</f>
+        <v>0.6000000000000002</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C245" s="1">
-        <f>1+C242</f>
-        <v>1.1200000000000001</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A246" t="s">
-        <v>40</v>
-      </c>
-      <c r="C246" s="1">
-        <f>(1+C240-C244)/(C245-C244)</f>
-        <v>0.71428571428571408</v>
+        <f>(C243-(1+C238))/(C243-C242)</f>
+        <v>0.39999999999999974</v>
       </c>
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>41</v>
       </c>
-      <c r="C247" s="1">
-        <f>(C245-(1+C240))/(C245-C244)</f>
-        <v>0.28571428571428586</v>
+      <c r="B247" t="s">
+        <v>42</v>
+      </c>
+      <c r="C247" t="s">
+        <v>43</v>
+      </c>
+      <c r="D247" t="s">
+        <v>44</v>
+      </c>
+      <c r="E247" t="s">
+        <v>45</v>
+      </c>
+      <c r="H247" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>0</v>
+      </c>
+      <c r="B248">
+        <f>COMBIN($C$239,A248)</f>
+        <v>1</v>
+      </c>
+      <c r="C248">
+        <f>$C$244^A248</f>
+        <v>1</v>
+      </c>
+      <c r="D248">
+        <f>$C$245^($C$239-A248)</f>
+        <v>0.15999999999999981</v>
+      </c>
+      <c r="E248">
+        <f>MAX($C$243^A248*$C$242^($C$239-A248)*$C$237-$C$236,0)</f>
+        <v>0</v>
+      </c>
+      <c r="H248">
+        <f>PRODUCT(B248:E248)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
-        <v>51</v>
-      </c>
-      <c r="B249" t="s">
-        <v>52</v>
-      </c>
-      <c r="C249" t="s">
-        <v>53</v>
-      </c>
-      <c r="D249" t="s">
-        <v>54</v>
-      </c>
-      <c r="E249" t="s">
-        <v>55</v>
-      </c>
-      <c r="H249" t="s">
-        <v>56</v>
+      <c r="A249">
+        <v>1</v>
+      </c>
+      <c r="B249">
+        <f t="shared" ref="B249:B251" si="23">COMBIN($C$239,A249)</f>
+        <v>2</v>
+      </c>
+      <c r="C249">
+        <f t="shared" ref="C249:C251" si="24">$C$244^A249</f>
+        <v>0.6000000000000002</v>
+      </c>
+      <c r="D249">
+        <f t="shared" ref="D249:D251" si="25">$C$245^($C$239-A249)</f>
+        <v>0.39999999999999974</v>
+      </c>
+      <c r="E249">
+        <f t="shared" ref="E249:E251" si="26">MAX($C$243^A249*$C$242^($C$239-A249)*$C$237-$C$236,0)</f>
+        <v>12.700000000000045</v>
+      </c>
+      <c r="H249">
+        <f t="shared" ref="H249:H251" si="27">PRODUCT(B249:E249)</f>
+        <v>6.0960000000000205</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B250">
-        <f>COMBIN($C$241,A250)</f>
+        <f>COMBIN($C$239,A250)</f>
         <v>1</v>
       </c>
       <c r="C250">
-        <f>$C$246^A250</f>
+        <f>$C$244^A250</f>
+        <v>0.36000000000000026</v>
+      </c>
+      <c r="D250">
+        <f>$C$245^($C$239-A250)</f>
         <v>1</v>
       </c>
-      <c r="D250">
-        <f>$C$247^($C$241-A250)</f>
-        <v>2.3323615160349892E-2</v>
-      </c>
       <c r="E250">
-        <f>MAX($C$245^A250*$C$244^($C$241-A250)*$C$239-$C$238,0)</f>
-        <v>0</v>
+        <f>MAX($C$243^A250*$C$242^($C$239-A250)*$C$237-$C$236,0)</f>
+        <v>594.39999999999986</v>
       </c>
       <c r="H250">
         <f>PRODUCT(B250:E250)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251">
+        <v>213.98400000000009</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G252" t="s">
+        <v>47</v>
+      </c>
+      <c r="H252">
+        <f>SUM(H248:H251)</f>
+        <v>220.08000000000013</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B253" t="s">
         <v>1</v>
       </c>
-      <c r="B251">
-        <f t="shared" ref="B251:B253" si="23">COMBIN($C$241,A251)</f>
-        <v>3</v>
-      </c>
-      <c r="C251">
-        <f t="shared" ref="C251:C253" si="24">$C$246^A251</f>
-        <v>0.71428571428571408</v>
-      </c>
-      <c r="D251">
-        <f t="shared" ref="D251:D253" si="25">$C$247^($C$241-A251)</f>
-        <v>8.163265306122458E-2</v>
-      </c>
-      <c r="E251">
-        <f t="shared" ref="E251:E253" si="26">MAX($C$245^A251*$C$244^($C$241-A251)*$C$239-$C$238,0)</f>
-        <v>0</v>
-      </c>
-      <c r="H251">
-        <f t="shared" ref="H251:H253" si="27">PRODUCT(B251:E251)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252">
-        <v>2</v>
-      </c>
-      <c r="B252">
-        <f t="shared" si="23"/>
-        <v>3</v>
-      </c>
-      <c r="C252">
-        <f t="shared" si="24"/>
-        <v>0.51020408163265274</v>
-      </c>
-      <c r="D252">
-        <f t="shared" si="25"/>
-        <v>0.28571428571428586</v>
-      </c>
-      <c r="E252">
-        <f t="shared" si="26"/>
-        <v>8.3008000000000663</v>
-      </c>
-      <c r="H252">
-        <f t="shared" si="27"/>
-        <v>3.6300874635568796</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253">
-        <v>3</v>
-      </c>
-      <c r="B253">
-        <f t="shared" si="23"/>
-        <v>1</v>
-      </c>
-      <c r="C253">
-        <f t="shared" si="24"/>
-        <v>0.36443148688046612</v>
-      </c>
-      <c r="D253">
-        <f t="shared" si="25"/>
-        <v>1</v>
-      </c>
-      <c r="E253">
-        <f t="shared" si="26"/>
-        <v>60.98560000000009</v>
-      </c>
-      <c r="H253">
-        <f t="shared" si="27"/>
-        <v>22.225072886297387</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G254" t="s">
-        <v>57</v>
-      </c>
-      <c r="H254">
-        <f>SUM(H250:H253)</f>
-        <v>25.855160349854266</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B255" t="s">
-        <v>1</v>
-      </c>
-      <c r="C255" s="4">
-        <f>1/(1+C240)^C241*H254</f>
-        <v>21.708491195629833</v>
+      <c r="C253" s="4">
+        <f>1/(1+C238)^C239*H252</f>
+        <v>195.87041651833403</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>16</v>
+      </c>
+      <c r="B260">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>26</v>
+      </c>
+      <c r="B261" s="1">
+        <v>0.17</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B262">
-        <v>1000</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B263">
-        <v>0.4</v>
+        <f>5/12</f>
+        <v>0.41666666666666669</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
-        <v>0</v>
-      </c>
-      <c r="B264">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" t="s">
-        <v>2</v>
-      </c>
-      <c r="B265">
-        <f>6/12</f>
-        <v>0.5</v>
+        <v>14</v>
+      </c>
+      <c r="B264" s="1">
+        <v>0.09</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B266">
-        <f>0.08</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" t="s">
+        <f>(LN(B260/B262)+(B264+B261^2/2)*B263)/(B261*SQRT(B263))</f>
+        <v>0.29084088438935074</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
         <v>28</v>
       </c>
-      <c r="B268">
-        <f>(LN(B262/B264)+(B266+B263^2/2)*B265)/(B263*SQRT(B265))</f>
-        <v>0.65534838792942107</v>
+      <c r="B267">
+        <f>B266-B261*SQRT(B263)</f>
+        <v>0.18110635624680727</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -6132,86 +6096,86 @@
         <v>29</v>
       </c>
       <c r="B269">
-        <f>B268-B263*SQRT(B265)</f>
-        <v>0.37250567545480201</v>
-      </c>
-    </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" t="s">
-        <v>30</v>
-      </c>
-      <c r="B271">
-        <f>_xlfn.NORM.S.DIST(B268,1)</f>
-        <v>0.7438782633471368</v>
+        <f>_xlfn.NORM.S.DIST(B266,1)</f>
+        <v>0.61441349247705379</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>29</v>
+      </c>
+      <c r="B270">
+        <f>_xlfn.NORM.S.DIST(B267,1)</f>
+        <v>0.57185795223148717</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>30</v>
-      </c>
-      <c r="B272">
-        <f>_xlfn.NORM.S.DIST(B269,1)</f>
-        <v>0.64524180642062023</v>
-      </c>
-    </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" t="s">
-        <v>58</v>
-      </c>
-      <c r="B274" s="2">
-        <f>B262*B271-B264*EXP(-B266*B265)*B272</f>
-        <v>185.93090136948717</v>
+        <v>48</v>
+      </c>
+      <c r="B272" s="2">
+        <f>B260*B269-B262*EXP(-B264*B263)*B270</f>
+        <v>73.46783431879669</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>16</v>
+      </c>
+      <c r="B279">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>26</v>
+      </c>
+      <c r="B280">
+        <v>0.4</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="B281">
-        <v>1000</v>
+        <v>900</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="B282">
-        <v>0.4</v>
+        <f>6/12</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B283">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" t="s">
-        <v>2</v>
-      </c>
-      <c r="B284">
-        <f>6/12</f>
-        <v>0.5</v>
+        <f>0.08</f>
+        <v>0.08</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B285">
-        <f>0.08</f>
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" t="s">
+        <f>(LN(B279/B281)+(B283+B280^2/2)*B282)/(B280*SQRT(B282))</f>
+        <v>0.65534838792942107</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
         <v>28</v>
       </c>
-      <c r="B287">
-        <f>(LN(B281/B283)+(B285+B282^2/2)*B284)/(B282*SQRT(B284))</f>
-        <v>0.65534838792942107</v>
+      <c r="B286">
+        <f>B285-B280*SQRT(B282)</f>
+        <v>0.37250567545480201</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -6219,214 +6183,155 @@
         <v>29</v>
       </c>
       <c r="B288">
-        <f>B287-B282*SQRT(B284)</f>
-        <v>0.37250567545480201</v>
-      </c>
-    </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" t="s">
+        <f>_xlfn.NORM.S.DIST(B285,1)</f>
+        <v>0.7438782633471368</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
         <v>30</v>
       </c>
-      <c r="B290">
-        <f>_xlfn.NORM.S.DIST(B287,1)</f>
-        <v>0.7438782633471368</v>
+      <c r="B289">
+        <f>_xlfn.NORM.S.DIST(B286,1)</f>
+        <v>0.64524180642062023</v>
       </c>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>31</v>
-      </c>
-      <c r="B291">
-        <f>_xlfn.NORM.S.DIST(B288,1)</f>
-        <v>0.64524180642062023</v>
-      </c>
-    </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" t="s">
         <v>8</v>
       </c>
-      <c r="B293" s="2">
-        <f>B283*EXP(-B285*B284)*(1-B291)-B281*(1-B290)</f>
+      <c r="B291" s="2">
+        <f>B281*EXP(-B283*B282)*(1-B289)-B279*(1-B288)</f>
         <v>50.641396606578041</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>16</v>
+      </c>
+      <c r="B301">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>0</v>
+      </c>
+      <c r="B302">
+        <v>1400</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>16</v>
-      </c>
-      <c r="B303">
-        <v>6000</v>
-      </c>
-      <c r="E303" t="s">
-        <v>0</v>
-      </c>
-      <c r="G303">
-        <v>220</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B303" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="G303" s="1"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="B304">
-        <v>5900</v>
-      </c>
-      <c r="E304" t="s">
-        <v>16</v>
-      </c>
-      <c r="G304">
-        <v>200</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="B305" s="1">
-        <f>8%/4</f>
-        <v>0.02</v>
-      </c>
-      <c r="E305" t="s">
-        <v>14</v>
-      </c>
-      <c r="G305" s="1">
-        <f>B305</f>
-        <v>0.02</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="C305">
+        <f>B305/12*4</f>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="G305" s="1"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" t="s">
-        <v>2</v>
-      </c>
-      <c r="B306">
-        <f>1/4</f>
-        <v>0.25</v>
-      </c>
-      <c r="E306" t="s">
-        <v>15</v>
-      </c>
-      <c r="G306">
-        <v>3</v>
-      </c>
+      <c r="G306" s="1"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>27</v>
-      </c>
-      <c r="B307" s="1">
-        <f>25%</f>
-        <v>0.25</v>
-      </c>
-      <c r="E307" t="s">
-        <v>24</v>
-      </c>
-      <c r="G307" s="1">
-        <v>0.12</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B307">
+        <f>EXP(C305*SQRT(B304))</f>
+        <v>1.0689391057472464</v>
+      </c>
+      <c r="G307" s="1"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E308" t="s">
-        <v>25</v>
-      </c>
-      <c r="G308" s="1">
-        <v>0.09</v>
-      </c>
+      <c r="A308" t="s">
+        <v>38</v>
+      </c>
+      <c r="B308">
+        <f>EXP(-C305*SQRT(B304))</f>
+        <v>0.93550698503161778</v>
+      </c>
+      <c r="G308" s="1"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>38</v>
-      </c>
-      <c r="B309">
-        <f>EXP(B307*SQRT(B306))</f>
-        <v>1.1331484530668263</v>
-      </c>
-      <c r="E309" t="s">
-        <v>39</v>
-      </c>
-      <c r="G309" s="1">
-        <f>B310</f>
-        <v>0.88249690258459546</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="B309" s="9">
+        <f>EXP(B303)^B305-1</f>
+        <v>1.2072288866077807E-2</v>
+      </c>
+      <c r="G309" s="1"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" t="s">
-        <v>39</v>
-      </c>
-      <c r="B310">
-        <f>EXP(-B307*SQRT(B306))</f>
-        <v>0.88249690258459546</v>
-      </c>
-      <c r="E310" t="s">
-        <v>38</v>
-      </c>
-      <c r="G310" s="1">
-        <f>B309</f>
-        <v>1.1331484530668263</v>
-      </c>
+      <c r="G310" s="1"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E311" t="s">
-        <v>40</v>
-      </c>
-      <c r="G311" s="1">
-        <f>(1+G305-G309)/(G310-G309)</f>
-        <v>0.54858267244252457</v>
-      </c>
+      <c r="A311" t="s">
+        <v>17</v>
+      </c>
+      <c r="B311">
+        <f>B301*B307</f>
+        <v>1480.4806614599363</v>
+      </c>
+      <c r="G311" s="1"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B312">
-        <f>B303*B309</f>
-        <v>6798.8907184009577</v>
-      </c>
-      <c r="E312" t="s">
-        <v>41</v>
-      </c>
-      <c r="G312" s="1">
-        <f>(G310-(1+G305))/(G310-G309)</f>
-        <v>0.45141732755747543</v>
-      </c>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" t="s">
-        <v>18</v>
-      </c>
-      <c r="B313">
-        <f>B303*B310</f>
-        <v>5294.9814155075728</v>
+        <f>B301*B308</f>
+        <v>1295.6771742687906</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>64</v>
+      </c>
+      <c r="C314">
+        <f>MAX(0,B311-B302)</f>
+        <v>80.4806614599363</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="C315">
-        <f>MAX(0,B312-B304)</f>
-        <v>898.89071840095767</v>
-      </c>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" t="s">
-        <v>23</v>
-      </c>
-      <c r="C316">
-        <f>MAX(0,B313-B304)</f>
+        <f>MAX(0,B312-B302)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" t="s">
-        <v>58</v>
-      </c>
-      <c r="B318">
-        <f>(1+B305-B310)*C315/((1+B305)*(B309-B310))</f>
-        <v>483.44693385703738</v>
-      </c>
-    </row>
-    <row r="322" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G322" s="4"/>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>48</v>
+      </c>
+      <c r="B317" s="2">
+        <f>((1+B309-B308)*C314+(B307-1-B309)*C315)/(1+B309)/(B307-B308)</f>
+        <v>45.630121486456666</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
